--- a/Doc/maps.xlsx
+++ b/Doc/maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C9398-A6F3-40D9-88C6-11E2B3B5FDF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C2246-944C-4BB2-874F-20CBA5D63A7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="3924" windowWidth="23016" windowHeight="12336" xr2:uid="{69EAB45B-0091-4A92-B04C-A5000FE6BB68}"/>
+    <workbookView xWindow="20772" yWindow="3732" windowWidth="4104" windowHeight="9348" xr2:uid="{69EAB45B-0091-4A92-B04C-A5000FE6BB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="112">
   <si>
     <t>A0</t>
   </si>
@@ -331,6 +331,42 @@
   </si>
   <si>
     <t>J9</t>
+  </si>
+  <si>
+    <t>map1</t>
+  </si>
+  <si>
+    <t>map2</t>
+  </si>
+  <si>
+    <t>map3</t>
+  </si>
+  <si>
+    <t>map4</t>
+  </si>
+  <si>
+    <t>map5</t>
+  </si>
+  <si>
+    <t>map6</t>
+  </si>
+  <si>
+    <t>map7</t>
+  </si>
+  <si>
+    <t>map8</t>
+  </si>
+  <si>
+    <t>map9</t>
+  </si>
+  <si>
+    <t>map10</t>
+  </si>
+  <si>
+    <t>map11</t>
+  </si>
+  <si>
+    <t>map12</t>
   </si>
 </sst>
 </file>
@@ -362,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +408,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC32BED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,12 +507,42 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC32BED"/>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98814E9A-8367-47F8-A126-D45DE38F1870}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="258" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J43"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="179" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -749,7 +863,7 @@
     <col min="11" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,8 +894,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -813,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -845,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -909,7 +1026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -941,7 +1058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -973,7 +1090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1122,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1069,7 +1186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1217,11 @@
       <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -1229,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1293,7 +1413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1389,7 +1509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,8 +1540,11 @@
       <c r="J23" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1549,7 +1672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1768,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1677,7 +1800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1740,8 +1863,11 @@
       <c r="J34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -1773,7 +1899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -1869,7 +1995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +2059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1965,7 +2091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +2123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2026,6 +2152,2590 @@
         <v>98</v>
       </c>
       <c r="J43" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J131" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2037,18 +4747,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2255,14 +4965,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C1DA617-E9FD-4E94-BDE7-8D0FE33D5AEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99494F4A-9364-440D-B7A8-356B4F37EDB3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2275,6 +4977,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C1DA617-E9FD-4E94-BDE7-8D0FE33D5AEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
